--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2776748.514606627</v>
+        <v>2774860.933090225</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>173.3244323150252</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.9124227879787</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60.46179076613115</v>
+        <v>363.5687190723337</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>294.5526453824723</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>172.2075379833799</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>188.3604874445081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>120.8530343211898</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>34.55149341717755</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>224.8952567231518</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>73.50096938092052</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>220.2803460863043</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>80.45677925363995</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>23.3098474938732</v>
+        <v>161.4046520073175</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>39.72583251028768</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
-        <v>95.45871282717818</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898586</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373783</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2522.073906861631</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2131.93457488582</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>702.55736257324</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>70.01613615165607</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>667.8624625746712</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>667.8624625746712</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X7" t="n">
-        <v>667.8624625746712</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>911.5940398628916</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4835,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227915</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>684.6639944919752</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>395.2468244550146</v>
+        <v>330.8254548799442</v>
       </c>
       <c r="X13" t="n">
-        <v>395.2468244550146</v>
+        <v>330.8254548799442</v>
       </c>
       <c r="Y13" t="n">
-        <v>395.2468244550147</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5598,19 +5598,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1595.645765494011</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.508393158044</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5695,25 +5695,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765188</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706319</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118776</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>609.3753482118776</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550798</v>
       </c>
       <c r="W28" t="n">
-        <v>496.665036439558</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="X28" t="n">
-        <v>268.6754855415408</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>487.2686325076215</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076215</v>
+        <v>326.3571123076821</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766566</v>
+        <v>232.0013381767172</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756343</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590948</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1784.388882649596</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1616.364332720473</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1382.996559215402</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1184.072936290886</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>950.4166315352961</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>778.1879459186496</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.1562320564904</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>488.2756279992592</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506735</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,16 +7412,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>582.1916992613344</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649697</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>231.9043177021524</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.23759968302093</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>272.8719470256808</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>274.365749697064</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>381.3739760657747</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>76.43196988338502</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>171.2966883299256</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,10 +11303,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>63.77715587931991</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>97.73161903090498</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0639796010348</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,16 +23704,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.34209567542553</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>124.4198406026827</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338614</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5.429309302732833</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>138.1278740984548</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>195.2748058582216</v>
+        <v>57.18000134477728</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.50487350772443</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>47.25884052786796</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.35003119794419e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="K2" t="n">
-        <v>630574.3128851686</v>
+        <v>630574.3128851682</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.37164482</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687073</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>22174.60758687069</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819118</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819118</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-202152.4534196586</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.425794886</v>
+        <v>387815.4257948861</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948857</v>
+        <v>387815.4257948859</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903482</v>
+        <v>-33324.38654500688</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578614</v>
+        <v>491835.649931889</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578614</v>
+        <v>491835.649931889</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578614</v>
+        <v>491835.649931889</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.1090578615</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652683</v>
+        <v>315412.4307392962</v>
       </c>
       <c r="K6" t="n">
-        <v>449444.2689510328</v>
+        <v>449425.7752130983</v>
       </c>
       <c r="L6" t="n">
-        <v>483655.9641957359</v>
+        <v>483655.9641957366</v>
       </c>
       <c r="M6" t="n">
-        <v>359197.8557627659</v>
+        <v>359197.8557627668</v>
       </c>
       <c r="N6" t="n">
+        <v>493998.8709966035</v>
+      </c>
+      <c r="O6" t="n">
         <v>493998.8709966032</v>
       </c>
-      <c r="O6" t="n">
-        <v>493998.8709966036</v>
-      </c>
       <c r="P6" t="n">
-        <v>449836.2656937577</v>
+        <v>449836.2656937581</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,16 +26756,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>196.4066683634438</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>132.7030502302337</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>200.3937499721748</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>321.4685793061306</v>
+        <v>18.36165099992803</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>192.4737869083824</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647186</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>60.13039623821066</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>52.82756747470438</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,22 +28324,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>522.129651981705</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35747,7 +35747,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35966,22 +35966,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>415.0485280872609</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>215.6591577951388</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>444.9221224039771</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686864</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>607.5603230950769</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>663.7376783068829</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160968</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>227.0074084713243</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>418.4946367192911</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>321.8721269178649</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38023,10 +38023,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>136.0477032746127</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686865</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
